--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.4498003176929</v>
+        <v>183.5312984405382</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.1696130024659</v>
+        <v>251.1156193556712</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.8292148493106</v>
+        <v>227.1494970874243</v>
       </c>
       <c r="AD2" t="n">
-        <v>140449.8003176929</v>
+        <v>183531.2984405382</v>
       </c>
       <c r="AE2" t="n">
-        <v>192169.6130024659</v>
+        <v>251115.6193556713</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.540475006505501e-06</v>
+        <v>5.104176826309739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.582175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>173829.2148493106</v>
+        <v>227149.4970874243</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.72489693972183</v>
+        <v>122.5397489801514</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.3432711941613</v>
+        <v>167.6642906267538</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.7126151363735</v>
+        <v>151.6626460476927</v>
       </c>
       <c r="AD3" t="n">
-        <v>96724.89693972183</v>
+        <v>122539.7489801514</v>
       </c>
       <c r="AE3" t="n">
-        <v>132343.2711941613</v>
+        <v>167664.2906267538</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.768512611114605e-06</v>
+        <v>6.874594940197071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.371527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>119712.6151363735</v>
+        <v>151662.6460476927</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.67321684449207</v>
+        <v>107.5733202309422</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.7488984546175</v>
+        <v>147.1865625398593</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.0837404267016</v>
+        <v>133.1392835887331</v>
       </c>
       <c r="AD4" t="n">
-        <v>81673.21684449207</v>
+        <v>107573.3202309422</v>
       </c>
       <c r="AE4" t="n">
-        <v>111748.8984546175</v>
+        <v>147186.5625398593</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.17111861876689e-06</v>
+        <v>7.455017694380036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.87962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>101083.7404267016</v>
+        <v>133139.2835887331</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.12759740193218</v>
+        <v>106.0277007883823</v>
       </c>
       <c r="AB5" t="n">
-        <v>109.6341137453908</v>
+        <v>145.0717778306326</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.17078780200379</v>
+        <v>131.2263309640353</v>
       </c>
       <c r="AD5" t="n">
-        <v>80127.59740193217</v>
+        <v>106027.7007883823</v>
       </c>
       <c r="AE5" t="n">
-        <v>109634.1137453908</v>
+        <v>145071.7778306326</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.28308783456583e-06</v>
+        <v>7.616439728285342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.752314814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>99170.78780200379</v>
+        <v>131226.3309640353</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.9225996657751</v>
+        <v>146.5922938857868</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.5056826561472</v>
+        <v>200.5740436900186</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.7598771535743</v>
+        <v>181.4315384677385</v>
       </c>
       <c r="AD2" t="n">
-        <v>112922.5996657751</v>
+        <v>146592.2938857868</v>
       </c>
       <c r="AE2" t="n">
-        <v>154505.6826561472</v>
+        <v>200574.0436900186</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.190655024980944e-06</v>
+        <v>6.134961308518249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.500000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>139759.8771535743</v>
+        <v>181431.5384677385</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.83264079766924</v>
+        <v>104.084911462678</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.8622969899858</v>
+        <v>142.4135677653893</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.56807075097362</v>
+        <v>128.8218167365968</v>
       </c>
       <c r="AD3" t="n">
-        <v>78832.64079766924</v>
+        <v>104084.911462678</v>
       </c>
       <c r="AE3" t="n">
-        <v>107862.2969899858</v>
+        <v>142413.5677653893</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.303595728000815e-06</v>
+        <v>7.764264630075491e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.925925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>97568.07075097362</v>
+        <v>128821.8167365968</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.35946918359429</v>
+        <v>101.611739848603</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.478394478979</v>
+        <v>139.0296652543826</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.50712314627924</v>
+        <v>125.7608691319024</v>
       </c>
       <c r="AD4" t="n">
-        <v>76359.46918359428</v>
+        <v>101611.739848603</v>
       </c>
       <c r="AE4" t="n">
-        <v>104478.394478979</v>
+        <v>139029.6652543826</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.493368824200395e-06</v>
+        <v>8.042085303846516e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.72337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>94507.12314627923</v>
+        <v>125760.8691319024</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.60919164020805</v>
+        <v>98.50766486802378</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.50587870912373</v>
+        <v>134.7825329238329</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.67724747796373</v>
+        <v>121.9190771500914</v>
       </c>
       <c r="AD2" t="n">
-        <v>67609.19164020805</v>
+        <v>98507.66486802378</v>
       </c>
       <c r="AE2" t="n">
-        <v>92505.87870912373</v>
+        <v>134782.5329238329</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.852990819376809e-06</v>
+        <v>9.055299249294671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>83677.24747796373</v>
+        <v>121919.0771500914</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.99603586919335</v>
+        <v>105.9751810584062</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.1905936859839</v>
+        <v>144.9999180190724</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.4832808851096</v>
+        <v>131.1613293520345</v>
       </c>
       <c r="AD2" t="n">
-        <v>81996.03586919335</v>
+        <v>105975.1810584062</v>
       </c>
       <c r="AE2" t="n">
-        <v>112190.5936859839</v>
+        <v>144999.9180190724</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.450840476794547e-06</v>
+        <v>8.2378223355051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>101483.2808851096</v>
+        <v>131161.3293520345</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.63985509144192</v>
+        <v>94.70425162667533</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.65256614653498</v>
+        <v>129.5785351322727</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.42818088626213</v>
+        <v>117.2117416038993</v>
       </c>
       <c r="AD3" t="n">
-        <v>70639.85509144192</v>
+        <v>94704.25162667532</v>
       </c>
       <c r="AE3" t="n">
-        <v>96652.56614653498</v>
+        <v>129578.5351322727</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.789890468041458e-06</v>
+        <v>8.750226542275999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>87428.18088626213</v>
+        <v>117211.7416038993</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.35105758365637</v>
+        <v>95.94224114905894</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.3621530061933</v>
+        <v>131.2724070130402</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.78372998247366</v>
+        <v>118.743952729731</v>
       </c>
       <c r="AD2" t="n">
-        <v>73351.05758365637</v>
+        <v>95942.24114905894</v>
       </c>
       <c r="AE2" t="n">
-        <v>100362.1530061933</v>
+        <v>131272.4070130402</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.770682648032015e-06</v>
+        <v>9.120494621292638e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.313657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>90783.72998247365</v>
+        <v>118743.952729731</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.2673446625783</v>
+        <v>151.1640752723391</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.4503544373917</v>
+        <v>206.8293566758564</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.137197803418</v>
+        <v>187.0898531615968</v>
       </c>
       <c r="AD2" t="n">
-        <v>117267.3446625783</v>
+        <v>151164.0752723391</v>
       </c>
       <c r="AE2" t="n">
-        <v>160450.3544373917</v>
+        <v>206829.3566758564</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.016253248049351e-06</v>
+        <v>5.855240543115305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.760416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>145137.197803418</v>
+        <v>187089.8531615968</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.99518117363668</v>
+        <v>115.3324777849368</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.1353771889023</v>
+        <v>157.8029842151016</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.3835096116131</v>
+        <v>142.742488879535</v>
       </c>
       <c r="AD3" t="n">
-        <v>89995.18117363668</v>
+        <v>115332.4777849368</v>
       </c>
       <c r="AE3" t="n">
-        <v>123135.3771889023</v>
+        <v>157802.9842151016</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.139171683061783e-06</v>
+        <v>7.492327933082498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.064814814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>111383.5096116131</v>
+        <v>142742.488879535</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.27617982612676</v>
+        <v>102.6987277834474</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.7326784225106</v>
+        <v>140.5169301013591</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.64169999063914</v>
+        <v>127.1061915092733</v>
       </c>
       <c r="AD4" t="n">
-        <v>77276.17982612677</v>
+        <v>102698.7277834474</v>
       </c>
       <c r="AE4" t="n">
-        <v>105732.6784225106</v>
+        <v>140516.9301013591</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.445099116305964e-06</v>
+        <v>7.938335343410154e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.72337962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>95641.69999063914</v>
+        <v>127106.1915092733</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.46318613955231</v>
+        <v>102.1192932091555</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.14732812624706</v>
+        <v>139.724122153964</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.68484628405172</v>
+        <v>126.3890480396644</v>
       </c>
       <c r="AD2" t="n">
-        <v>72463.1861395523</v>
+        <v>102119.2932091555</v>
       </c>
       <c r="AE2" t="n">
-        <v>99147.32812624706</v>
+        <v>139724.122153964</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.631053404849779e-06</v>
+        <v>9.02227027593868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>89684.84628405172</v>
+        <v>126389.0480396644</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.94232203458192</v>
+        <v>125.7898324679015</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.1677853335241</v>
+        <v>172.1111982382552</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.0310703824338</v>
+        <v>155.6851470380279</v>
       </c>
       <c r="AD2" t="n">
-        <v>92942.32203458191</v>
+        <v>125789.8324679015</v>
       </c>
       <c r="AE2" t="n">
-        <v>127167.7853335241</v>
+        <v>172111.1982382552</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.748018770669287e-06</v>
+        <v>7.05006337147133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115031.0703824338</v>
+        <v>155685.1470380279</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.54257997804427</v>
+        <v>98.24221844396266</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6242023955664</v>
+        <v>134.419337415763</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.02076974591373</v>
+        <v>121.5905445115634</v>
       </c>
       <c r="AD3" t="n">
-        <v>73542.57997804428</v>
+        <v>98242.21844396266</v>
       </c>
       <c r="AE3" t="n">
-        <v>100624.2023955664</v>
+        <v>134419.3374157629</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.645430255088069e-06</v>
+        <v>8.38257870913642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>91020.76974591373</v>
+        <v>121590.5445115634</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.9268271324587</v>
+        <v>142.1902594184528</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.0384903950234</v>
+        <v>194.5509859277608</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.814466048598</v>
+        <v>175.983312884894</v>
       </c>
       <c r="AD2" t="n">
-        <v>108926.8271324587</v>
+        <v>142190.2594184528</v>
       </c>
       <c r="AE2" t="n">
-        <v>149038.4903950235</v>
+        <v>194550.9859277608</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.36389888686362e-06</v>
+        <v>6.416862297924988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.274305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>134814.466048598</v>
+        <v>175983.312884894</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.31374680140729</v>
+        <v>101.389265166347</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.4158350985416</v>
+        <v>138.7252655792298</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.45053434530817</v>
+        <v>125.4855209345185</v>
       </c>
       <c r="AD3" t="n">
-        <v>76313.74680140729</v>
+        <v>101389.265166347</v>
       </c>
       <c r="AE3" t="n">
-        <v>104415.8350985416</v>
+        <v>138725.2655792298</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.471779761028098e-06</v>
+        <v>8.04593739712547e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>94450.53434530817</v>
+        <v>125485.5209345185</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.58850728873621</v>
+        <v>100.6640256536759</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.4235304019964</v>
+        <v>137.7329608826845</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.55293381629247</v>
+        <v>124.5879204055028</v>
       </c>
       <c r="AD4" t="n">
-        <v>75588.5072887362</v>
+        <v>100664.025653676</v>
       </c>
       <c r="AE4" t="n">
-        <v>103423.5304019964</v>
+        <v>137732.9608826845</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.526954422385003e-06</v>
+        <v>8.127068562956939e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>93552.93381629247</v>
+        <v>124587.9204055028</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.9763861789723</v>
+        <v>169.219115666268</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.6806463078825</v>
+        <v>231.5330594749832</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.0549846252251</v>
+        <v>209.4358692374475</v>
       </c>
       <c r="AD2" t="n">
-        <v>134976.3861789723</v>
+        <v>169219.115666268</v>
       </c>
       <c r="AE2" t="n">
-        <v>184680.6463078824</v>
+        <v>231533.0594749832</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.704564245082593e-06</v>
+        <v>5.359661698961317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.269675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>167054.9846252251</v>
+        <v>209435.8692374475</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.64915162909473</v>
+        <v>120.3098859080614</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.5031448847427</v>
+        <v>164.6132935969059</v>
       </c>
       <c r="AC3" t="n">
-        <v>117.1435464957826</v>
+        <v>148.9028318922714</v>
       </c>
       <c r="AD3" t="n">
-        <v>94649.15162909473</v>
+        <v>120309.8859080614</v>
       </c>
       <c r="AE3" t="n">
-        <v>129503.1448847427</v>
+        <v>164613.2935969059</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.876246041570298e-06</v>
+        <v>7.054818708680103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>117143.5464957826</v>
+        <v>148902.8318922714</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.633294972359</v>
+        <v>105.3792805973462</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.957787354165</v>
+        <v>144.1845807189775</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.55900905232629</v>
+        <v>130.4238066995273</v>
       </c>
       <c r="AD4" t="n">
-        <v>79633.294972359</v>
+        <v>105379.2805973462</v>
       </c>
       <c r="AE4" t="n">
-        <v>108957.787354165</v>
+        <v>144184.5807189776</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.29059355076965e-06</v>
+        <v>7.654285293195033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.792824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>98559.00905232629</v>
+        <v>130423.8066995274</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>79.26599724555182</v>
+        <v>105.011982870539</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.4552344003156</v>
+        <v>143.6820277651281</v>
       </c>
       <c r="AC5" t="n">
-        <v>98.10441904705461</v>
+        <v>129.9692166942557</v>
       </c>
       <c r="AD5" t="n">
-        <v>79265.99724555181</v>
+        <v>105011.982870539</v>
       </c>
       <c r="AE5" t="n">
-        <v>108455.2344003156</v>
+        <v>143682.0277651281</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.324156387211759e-06</v>
+        <v>7.702843082205186e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.752314814814814</v>
       </c>
       <c r="AH5" t="n">
-        <v>98104.4190470546</v>
+        <v>129969.2166942557</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.59778508273224</v>
+        <v>109.7999614363082</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.1186658579062</v>
+        <v>150.2331512695166</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.9410247655379</v>
+        <v>135.8951101659469</v>
       </c>
       <c r="AD2" t="n">
-        <v>85597.78508273224</v>
+        <v>109799.9614363081</v>
       </c>
       <c r="AE2" t="n">
-        <v>117118.6658579062</v>
+        <v>150233.1512695166</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202388975357715e-06</v>
+        <v>7.812347480519011e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.371527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>105941.0247655379</v>
+        <v>135895.1101659469</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.6152714027012</v>
+        <v>95.90269910229766</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.98717377592986</v>
+        <v>131.2183038401895</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.63541543664157</v>
+        <v>118.6950130877628</v>
       </c>
       <c r="AD3" t="n">
-        <v>71615.2714027012</v>
+        <v>95902.69910229766</v>
       </c>
       <c r="AE3" t="n">
-        <v>97987.17377592986</v>
+        <v>131218.3038401895</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.751389401586596e-06</v>
+        <v>8.636772973685476e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>88635.41543664156</v>
+        <v>118695.0130877628</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.81322543211499</v>
+        <v>92.38780140835597</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.15329086143197</v>
+        <v>126.4090657489987</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.16743292661367</v>
+        <v>114.3447619301857</v>
       </c>
       <c r="AD2" t="n">
-        <v>68813.225432115</v>
+        <v>92387.80140835597</v>
       </c>
       <c r="AE2" t="n">
-        <v>94153.29086143197</v>
+        <v>126409.0657489987</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.820062949807918e-06</v>
+        <v>8.926502627554888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.931712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>85167.43292661368</v>
+        <v>114344.7619301857</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.82862737680153</v>
+        <v>92.40320335304253</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.17436448163795</v>
+        <v>126.4301393692046</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.18649531008421</v>
+        <v>114.3638243136562</v>
       </c>
       <c r="AD3" t="n">
-        <v>68828.62737680154</v>
+        <v>92403.20335304253</v>
       </c>
       <c r="AE3" t="n">
-        <v>94174.36448163795</v>
+        <v>126430.1393692046</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.837781216850015e-06</v>
+        <v>8.953677962026522e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.914351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>85186.49531008421</v>
+        <v>114363.8243136562</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.55877072906581</v>
+        <v>97.47829965331916</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.0145994122853</v>
+        <v>133.3741100246865</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.27846922279184</v>
+        <v>120.6450721557051</v>
       </c>
       <c r="AD2" t="n">
-        <v>74558.77072906581</v>
+        <v>97478.29965331916</v>
       </c>
       <c r="AE2" t="n">
-        <v>102014.5994122853</v>
+        <v>133374.1100246865</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.813416952999239e-06</v>
+        <v>9.083349317286816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92278.46922279184</v>
+        <v>120645.0721557051</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.03805820726522</v>
+        <v>100.9134161933101</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.1433581521714</v>
+        <v>138.0741880213459</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.82230783031211</v>
+        <v>124.8965813049657</v>
       </c>
       <c r="AD2" t="n">
-        <v>79038.05820726522</v>
+        <v>100913.4161933101</v>
       </c>
       <c r="AE2" t="n">
-        <v>108143.3581521714</v>
+        <v>138074.1880213458</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.350937303685927e-06</v>
+        <v>8.72029481350801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.164351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>97822.30783031211</v>
+        <v>124896.5813049657</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.0807489824496</v>
+        <v>129.9724254086638</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.7761165931908</v>
+        <v>177.834006422781</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.0543258166226</v>
+        <v>160.8617784414361</v>
       </c>
       <c r="AD2" t="n">
-        <v>105080.7489824496</v>
+        <v>129972.4254086638</v>
       </c>
       <c r="AE2" t="n">
-        <v>143776.1165931908</v>
+        <v>177834.006422781</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.546721415134174e-06</v>
+        <v>6.717238943349085e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>130054.3258166226</v>
+        <v>160861.7784414361</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.91751841346445</v>
+        <v>99.80910533112771</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.5054538209101</v>
+        <v>136.5632211809519</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.72247717557615</v>
+        <v>123.5298190191631</v>
       </c>
       <c r="AD3" t="n">
-        <v>74917.51841346445</v>
+        <v>99809.10533112771</v>
       </c>
       <c r="AE3" t="n">
-        <v>102505.4538209101</v>
+        <v>136563.2211809519</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.559251973329585e-06</v>
+        <v>8.213132154268518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>92722.47717557615</v>
+        <v>123529.8190191631</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.58636061535238</v>
+        <v>99.47794753301562</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.0523491118824</v>
+        <v>136.1101164719242</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.31261614404148</v>
+        <v>123.1199579876285</v>
       </c>
       <c r="AD4" t="n">
-        <v>74586.36061535237</v>
+        <v>99477.94753301563</v>
       </c>
       <c r="AE4" t="n">
-        <v>102052.3491118824</v>
+        <v>136110.1164719242</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.59337412573663e-06</v>
+        <v>8.26354356725207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>92312.61614404149</v>
+        <v>123119.9579876285</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.4931406383842</v>
+        <v>164.5238206551897</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.5464719724187</v>
+        <v>225.1087496990326</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.5062472789682</v>
+        <v>203.6246865699362</v>
       </c>
       <c r="AD2" t="n">
-        <v>130493.1406383842</v>
+        <v>164523.8206551897</v>
       </c>
       <c r="AE2" t="n">
-        <v>178546.4719724187</v>
+        <v>225108.7496990326</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.850729192349897e-06</v>
+        <v>5.59190962070789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>161506.2472789682</v>
+        <v>203624.6865699362</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.24503551220107</v>
+        <v>117.7467326883001</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.2137271514928</v>
+        <v>161.106274283291</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.1680661742662</v>
+        <v>145.7305175798141</v>
       </c>
       <c r="AD3" t="n">
-        <v>92245.03551220107</v>
+        <v>117746.7326883001</v>
       </c>
       <c r="AE3" t="n">
-        <v>126213.7271514928</v>
+        <v>161106.274283291</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.015342576307339e-06</v>
+        <v>7.283125092077513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>114168.0661742662</v>
+        <v>145730.5175798142</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.32034779763521</v>
+        <v>103.9072963197548</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.1613551065675</v>
+        <v>142.1705468910149</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.93402577713039</v>
+        <v>128.6019894333905</v>
       </c>
       <c r="AD4" t="n">
-        <v>78320.3477976352</v>
+        <v>103907.2963197548</v>
       </c>
       <c r="AE4" t="n">
-        <v>107161.3551065675</v>
+        <v>142170.5468910148</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.382587057085927e-06</v>
+        <v>7.81642614822487e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>96934.02577713039</v>
+        <v>128601.9894333906</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.45399597957811</v>
+        <v>104.0409445016977</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.3442184452433</v>
+        <v>142.3534102296907</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.09943689541338</v>
+        <v>128.7674005516735</v>
       </c>
       <c r="AD5" t="n">
-        <v>78453.9959795781</v>
+        <v>104040.9445016977</v>
       </c>
       <c r="AE5" t="n">
-        <v>107344.2184452433</v>
+        <v>142353.4102296907</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.381199214571358e-06</v>
+        <v>7.814410766326638e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>97099.43689541338</v>
+        <v>128767.4005516735</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.00986453466895</v>
+        <v>114.3872690696924</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.682491143708</v>
+        <v>156.5097079512395</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.4510393573968</v>
+        <v>141.5726410871708</v>
       </c>
       <c r="AD2" t="n">
-        <v>86009.86453466894</v>
+        <v>114387.2690696924</v>
       </c>
       <c r="AE2" t="n">
-        <v>117682.491143708</v>
+        <v>156509.7079512395</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.728341628114171e-06</v>
+        <v>7.881863784002824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.39699074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>106451.0393573968</v>
+        <v>141572.6410871708</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.93052775594772</v>
+        <v>102.5300099500675</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.05027730968452</v>
+        <v>140.2860829184234</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.78793505419195</v>
+        <v>126.8973760574808</v>
       </c>
       <c r="AD2" t="n">
-        <v>70930.52775594773</v>
+        <v>102530.0099500675</v>
       </c>
       <c r="AE2" t="n">
-        <v>97050.27730968452</v>
+        <v>140286.0829184234</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.671798583444942e-06</v>
+        <v>8.631947821217424e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.99537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>87787.93505419194</v>
+        <v>126897.3760574808</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.82125366571017</v>
+        <v>93.64887659315745</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.53251956170325</v>
+        <v>128.1345244515539</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.41502997549115</v>
+        <v>115.905545275866</v>
       </c>
       <c r="AD3" t="n">
-        <v>69821.25366571017</v>
+        <v>93648.87659315746</v>
       </c>
       <c r="AE3" t="n">
-        <v>95532.51956170326</v>
+        <v>128134.5244515539</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.808950772990616e-06</v>
+        <v>8.840680646670634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.856481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>86415.02997549115</v>
+        <v>115905.545275866</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.98471048977486</v>
+        <v>113.5687148034397</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.7528066204229</v>
+        <v>155.3897258920875</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.1328896377389</v>
+        <v>140.5595485438393</v>
       </c>
       <c r="AD2" t="n">
-        <v>88984.71048977485</v>
+        <v>113568.7148034397</v>
       </c>
       <c r="AE2" t="n">
-        <v>121752.8066204229</v>
+        <v>155389.7258920875</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.985228418767032e-06</v>
+        <v>7.442500818516459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.568287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>110132.8896377389</v>
+        <v>140559.5485438393</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.51110956216468</v>
+        <v>97.0097730212579</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.21289906729747</v>
+        <v>132.7330512167644</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.74415922651768</v>
+        <v>120.0651951006792</v>
       </c>
       <c r="AD3" t="n">
-        <v>72511.10956216468</v>
+        <v>97009.7730212579</v>
       </c>
       <c r="AE3" t="n">
-        <v>99212.89906729748</v>
+        <v>132733.0512167644</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.695786759887417e-06</v>
+        <v>8.503300964701154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.752314814814814</v>
       </c>
       <c r="AH3" t="n">
-        <v>89744.15922651769</v>
+        <v>120065.1951006792</v>
       </c>
     </row>
   </sheetData>
